--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>site</t>
   </si>
@@ -79,10 +79,13 @@
     <t>2025-11-20</t>
   </si>
   <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/reel/4123467941205726</t>
   </si>
   <si>
-    <t>https://bit.ly/KB-11-11</t>
+    <t>https://www.zangia.mn/</t>
   </si>
   <si>
     <t>https://exchange.boost.mn/ad/web/fdfc95aa-90ae-4871-a1b1-0428fdd37f0e</t>
@@ -133,6 +136,9 @@
     <t>https://banner.bolor.net/pub/jump?t=b9619fe07489de6d9a73d897ec39856a</t>
   </si>
   <si>
+    <t>https://ticketing.urgoo.mn/movie/HO00001798</t>
+  </si>
+  <si>
     <t>https://content.ikon.mn/raw/2025/11/11/18439/Sport_app_ikon_banner_1360x200_2.jpg</t>
   </si>
   <si>
@@ -190,76 +196,82 @@
     <t>https://content.ikon.mn/raw/2025/11/12/18446/IKON__2___1_.jpg</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\ikon_1763635528_1_649361d9.png</t>
+    <t>https://content.ikon.mn/raw/2025/11/12/18443/Banner560x400.jpg</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\ikon_1763962869_1_649361d9.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\ikon_1763635541_1_79d16520.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\ikon_1763635554_1_6d7e63d1.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\ikon_1763635561_2_26cd4c0c.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763629564_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763629564_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763629564_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763629565_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763629565_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763635513_5_167ecfe9.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763635515_20_767f822f.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763635517_61_d480f558.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763635529_62_09be910d.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763635537_7_5d66d2ef.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763629595_0_988754e7.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763629603_0_dc08ebf8.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763629587_0_2f23e314.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1763635515_26_ef6fd160.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1763635517_34_020787f6.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1763635522_135_e2d53d38.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763635590_0_fa84a932.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763635598_0_4488d123.png</t>
+    <t>C:\Scraper\banner_screenshots\ikon_1763962886_2_6d7e63d1.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\ikon_1763954642_2_26cd4c0c.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1763962920_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1763962920_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1763962920_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1763962921_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1763962921_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1763962859_5_167ecfe9.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1763962863_20_767f822f.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1763962865_62_d480f558.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1763962892_63_09be910d.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1763962910_7_5d66d2ef.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1763962956_0_988754e7.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1763962973_0_2f23e314.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\gogo_1763962857_26_ef6fd160.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\gogo_1763962859_35_020787f6.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\gogo_1763962867_141_e2d53d38.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1763954768_0_4488d123.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763635606_0_cc6f2fd0.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\ikon_1763629540_1_77abb1bd.png</t>
+    <t>C:\Scraper\banner_screenshots\ikon_1763962881_1_77abb1bd.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\ikon_1763962893_1_8943e5e1.png</t>
   </si>
   <si>
     <t>from_ad_page:https://ikon.mn/ad/IKONMN_A1?1763616287</t>
@@ -281,6 +293,9 @@
   </si>
   <si>
     <t>from_ad_page:https://ikon.mn/ad/IKONMN_B1?1763619886</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_B2?1763954033</t>
   </si>
 </sst>
 </file>
@@ -661,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,22 +758,22 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -767,10 +782,10 @@
         <v>45981.23287239583</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O2" s="3">
-        <v>45981.4529702662</v>
+        <v>45985.24167697917</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -796,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -808,7 +823,7 @@
         <v>45981.23287303241</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O3" s="3">
         <v>45981.45297028935</v>
@@ -828,22 +843,22 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -852,10 +867,10 @@
         <v>45981.23287306713</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O4" s="3">
-        <v>45981.45297030092</v>
+        <v>45985.24167704861</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -872,22 +887,22 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -896,10 +911,10 @@
         <v>45981.2328730787</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O5" s="3">
-        <v>45981.4529703125</v>
+        <v>45985.14627177083</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -916,22 +931,22 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -940,10 +955,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O6" s="3">
-        <v>45981.38351530093</v>
+        <v>45985.24167706018</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -960,22 +975,22 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -984,10 +999,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O7" s="3">
-        <v>45981.3835153125</v>
+        <v>45985.24167708333</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1004,22 +1019,22 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1028,10 +1043,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O8" s="3">
-        <v>45981.38351532407</v>
+        <v>45985.24167710648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1048,22 +1063,22 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1072,10 +1087,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O9" s="3">
-        <v>45981.38351534722</v>
+        <v>45985.24167711806</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1092,22 +1107,22 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1116,10 +1131,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O10" s="3">
-        <v>45981.38351537037</v>
+        <v>45985.24167712963</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1136,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1160,10 +1175,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O11" s="3">
-        <v>45981.45297032408</v>
+        <v>45985.2416771412</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1180,22 +1195,22 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1204,10 +1219,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O12" s="3">
-        <v>45981.45297032408</v>
+        <v>45985.24167716435</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1224,22 +1239,22 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1248,10 +1263,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O13" s="3">
-        <v>45981.45297032408</v>
+        <v>45985.24167717592</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1268,22 +1283,22 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1292,10 +1307,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O14" s="3">
-        <v>45981.45297033565</v>
+        <v>45985.24167722222</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1312,22 +1327,22 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1336,10 +1351,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O15" s="3">
-        <v>45981.45297033565</v>
+        <v>45985.2416772338</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1356,22 +1371,22 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1380,10 +1395,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O16" s="3">
-        <v>45981.38351550926</v>
+        <v>45985.24167725694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1400,22 +1415,22 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1424,10 +1439,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O17" s="3">
-        <v>45981.38351552084</v>
+        <v>45985.24167728009</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1444,22 +1459,22 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1468,10 +1483,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O18" s="3">
-        <v>45981.38351546296</v>
+        <v>45985.24167729167</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1488,22 +1503,22 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1512,10 +1527,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O19" s="3">
-        <v>45981.45297038194</v>
+        <v>45985.24167730324</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1532,22 +1547,22 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1556,10 +1571,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O20" s="3">
-        <v>45981.45297040509</v>
+        <v>45985.24167732639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1576,22 +1591,22 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1600,10 +1615,10 @@
         <v>45981.23287315972</v>
       </c>
       <c r="N21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O21" s="3">
-        <v>45981.45297041666</v>
+        <v>45985.24167738426</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1620,22 +1635,22 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1644,10 +1659,10 @@
         <v>45981.24228215278</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O22" s="3">
-        <v>45981.4529703588</v>
+        <v>45985.14627189815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1664,22 +1679,22 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1688,10 +1703,10 @@
         <v>45981.24228216435</v>
       </c>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O23" s="3">
-        <v>45981.4529703588</v>
+        <v>45985.14627192129</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1717,13 +1732,13 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1732,7 +1747,7 @@
         <v>45981.24228217592</v>
       </c>
       <c r="N24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O24" s="3">
         <v>45981.45297038194</v>
@@ -1752,22 +1767,22 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1776,10 +1791,54 @@
         <v>45981.27268214121</v>
       </c>
       <c r="N25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O25" s="3">
-        <v>45981.38351528935</v>
+        <v>45985.24167701389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1280</v>
+      </c>
+      <c r="C26">
+        <v>720</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>45985.14627177083</v>
+      </c>
+      <c r="N26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="3">
+        <v>45985.24167706018</v>
       </c>
     </row>
   </sheetData>
@@ -1831,6 +1890,8 @@
     <hyperlink ref="I24" r:id="rId45"/>
     <hyperlink ref="H25" r:id="rId46"/>
     <hyperlink ref="I25" r:id="rId47"/>
+    <hyperlink ref="H26" r:id="rId48"/>
+    <hyperlink ref="I26" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
   <si>
     <t>site</t>
   </si>
@@ -76,18 +76,27 @@
     <t>gogo.mn</t>
   </si>
   <si>
+    <t>caak.mn</t>
+  </si>
+  <si>
     <t>2025-11-20</t>
   </si>
   <si>
     <t>2025-11-24</t>
   </si>
   <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/reel/4123467941205726</t>
   </si>
   <si>
     <t>https://www.zangia.mn/</t>
   </si>
   <si>
+    <t>https://bit.ly/KB-11-11</t>
+  </si>
+  <si>
     <t>https://exchange.boost.mn/ad/web/fdfc95aa-90ae-4871-a1b1-0428fdd37f0e</t>
   </si>
   <si>
@@ -139,6 +148,21 @@
     <t>https://ticketing.urgoo.mn/movie/HO00001798</t>
   </si>
   <si>
+    <t>https://mlholding.mn/price-offer/</t>
+  </si>
+  <si>
+    <t>https://univision.mn/promotion/939</t>
+  </si>
+  <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7820/</t>
+  </si>
+  <si>
+    <t>https://looktv-movie-night-2025.pages.dev/#buy</t>
+  </si>
+  <si>
+    <t>/post/view/43021</t>
+  </si>
+  <si>
     <t>https://content.ikon.mn/raw/2025/11/11/18439/Sport_app_ikon_banner_1360x200_2.jpg</t>
   </si>
   <si>
@@ -199,6 +223,21 @@
     <t>https://content.ikon.mn/raw/2025/11/12/18443/Banner560x400.jpg</t>
   </si>
   <si>
+    <t>https://content.ikon.mn/raw/2025/11/24/18509/For_More_Information.png</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBelk0Qmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--0fe9698a69598d03148f7c5fec05453bc3497806/1900x300%20(3).jpg</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBOGNVQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--6b41fbc802df36b903e5e8d2d6694183be0df913/caaak%20(2).jpg</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGcxQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--1c8fdb03f8a1b33c5bb4a26dbec472ea54846658/420x520%20(1).jpg</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/representations/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBMjhhQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--d2b7f6a9c7bd22a23bc5983f355107d5305cf49e/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2QzNKbGMybDZaVWtpRERVd01IZzFNREFHT3daVSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--0b219c26dacee4763e56c3b3bbf569e95bd63a7e/HM%20aztan%20banner.png</t>
+  </si>
+  <si>
     <t>C:\Scraper\banner_screenshots\ikon_1763962869_1_649361d9.png</t>
   </si>
   <si>
@@ -208,72 +247,99 @@
     <t>C:\Scraper\banner_screenshots\ikon_1763962886_2_6d7e63d1.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\ikon_1763954642_2_26cd4c0c.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763962920_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763962920_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763962920_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763962921_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1763962921_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763962859_5_167ecfe9.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763962863_20_767f822f.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763962865_62_d480f558.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763962892_63_09be910d.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1763962910_7_5d66d2ef.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763962956_0_988754e7.png</t>
+    <t>C:\Scraper\banner_screenshots\ikon_1764152521_1_26cd4c0c.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1764152547_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1764152547_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1764152547_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1764152548_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\lemonpress_1764152548_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1764152501_5_167ecfe9.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1764152503_20_767f822f.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1764152504_61_d480f558.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1764152516_62_09be910d.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\news_1764152525_7_5d66d2ef.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1764152621_0_988754e7.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763962973_0_2f23e314.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1763962857_26_ef6fd160.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1763962859_35_020787f6.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1763962867_141_e2d53d38.png</t>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1764152574_1_2f23e314.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\gogo_1764152501_26_ef6fd160.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\gogo_1764152503_34_020787f6.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\gogo_1764152508_138_e2d53d38.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763954768_0_4488d123.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1763635606_0_cc6f2fd0.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\ikon_1763962881_1_77abb1bd.png</t>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1764152589_0_4488d123.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\bolortoli_1764152572_0_cc6f2fd0.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\ikon_1764152528_2_77abb1bd.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\ikon_1763962893_1_8943e5e1.png</t>
   </si>
   <si>
+    <t>C:\Scraper\banner_screenshots\ikon_1764152508_1_ff50ab9a.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\caak_1764152550_0_d225befc.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\caak_1764152553_1_823be403.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\caak_1764152555_2_b964dd1d.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\caak_1764152556_3_d6c500cb.png</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>large,external_click</t>
+  </si>
+  <si>
+    <t>large,ad_host/path,ad_word</t>
+  </si>
+  <si>
     <t>from_ad_page:https://ikon.mn/ad/IKONMN_A1?1763616287</t>
   </si>
   <si>
@@ -296,6 +362,12 @@
   </si>
   <si>
     <t>from_ad_page:https://ikon.mn/ad/IKONMN_B2?1763954033</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_A1?1764152315</t>
+  </si>
+  <si>
+    <t>onpage_active_storage</t>
   </si>
 </sst>
 </file>
@@ -676,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +763,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="10" width="60.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" customWidth="1"/>
     <col min="14" max="14" width="54.7109375" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
@@ -755,10 +827,10 @@
         <v>720</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -767,13 +839,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -782,7 +854,7 @@
         <v>45981.23287239583</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="O2" s="3">
         <v>45985.24167697917</v>
@@ -799,10 +871,10 @@
         <v>720</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -811,10 +883,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -823,7 +895,7 @@
         <v>45981.23287303241</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="O3" s="3">
         <v>45981.45297028935</v>
@@ -840,10 +912,10 @@
         <v>720</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -852,13 +924,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -867,7 +939,7 @@
         <v>45981.23287306713</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="O4" s="3">
         <v>45985.24167704861</v>
@@ -884,25 +956,25 @@
         <v>720</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -911,10 +983,10 @@
         <v>45981.2328730787</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="O5" s="3">
-        <v>45985.14627177083</v>
+        <v>45987.43331303241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -928,25 +1000,25 @@
         <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -955,10 +1027,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O6" s="3">
-        <v>45985.24167706018</v>
+        <v>45987.43331322916</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -972,25 +1044,25 @@
         <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -999,10 +1071,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O7" s="3">
-        <v>45985.24167708333</v>
+        <v>45987.43331324074</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1016,25 +1088,25 @@
         <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1043,10 +1115,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O8" s="3">
-        <v>45985.24167710648</v>
+        <v>45987.43331326389</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1060,25 +1132,25 @@
         <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1087,10 +1159,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O9" s="3">
-        <v>45985.24167711806</v>
+        <v>45987.43331327546</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1104,25 +1176,25 @@
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1131,10 +1203,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O10" s="3">
-        <v>45985.24167712963</v>
+        <v>45987.43331328704</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1148,25 +1220,25 @@
         <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1175,10 +1247,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="O11" s="3">
-        <v>45985.2416771412</v>
+        <v>45987.433313125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1192,25 +1264,25 @@
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1219,10 +1291,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="O12" s="3">
-        <v>45985.24167716435</v>
+        <v>45987.43331315972</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1236,25 +1308,25 @@
         <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1263,10 +1335,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="O13" s="3">
-        <v>45985.24167717592</v>
+        <v>45987.4333131713</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1280,25 +1352,25 @@
         <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1307,10 +1379,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="O14" s="3">
-        <v>45985.24167722222</v>
+        <v>45987.43331319444</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1324,25 +1396,25 @@
         <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1351,10 +1423,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="O15" s="3">
-        <v>45985.2416772338</v>
+        <v>45987.43331320602</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1368,25 +1440,25 @@
         <v>579</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1395,10 +1467,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O16" s="3">
-        <v>45985.24167725694</v>
+        <v>45987.43331335648</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1412,10 +1484,10 @@
         <v>579</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1424,13 +1496,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1439,7 +1511,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O17" s="3">
         <v>45985.24167728009</v>
@@ -1456,25 +1528,25 @@
         <v>579</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1483,10 +1555,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O18" s="3">
-        <v>45985.24167729167</v>
+        <v>45987.43331333333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1500,25 +1572,25 @@
         <v>483</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1527,10 +1599,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O19" s="3">
-        <v>45985.24167730324</v>
+        <v>45987.43331335648</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1544,25 +1616,25 @@
         <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1571,10 +1643,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O20" s="3">
-        <v>45985.24167732639</v>
+        <v>45987.43331336806</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1588,25 +1660,25 @@
         <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1615,10 +1687,10 @@
         <v>45981.23287315972</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O21" s="3">
-        <v>45985.24167738426</v>
+        <v>45987.43331337963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1632,10 +1704,10 @@
         <v>579</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1644,13 +1716,13 @@
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1659,7 +1731,7 @@
         <v>45981.24228215278</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O22" s="3">
         <v>45985.14627189815</v>
@@ -1676,25 +1748,25 @@
         <v>579</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1703,10 +1775,10 @@
         <v>45981.24228216435</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O23" s="3">
-        <v>45985.14627192129</v>
+        <v>45987.43331334491</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1720,25 +1792,25 @@
         <v>579</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1747,10 +1819,10 @@
         <v>45981.24228217592</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O24" s="3">
-        <v>45981.45297038194</v>
+        <v>45987.43331333333</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1764,25 +1836,25 @@
         <v>720</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1791,10 +1863,10 @@
         <v>45981.27268214121</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="O25" s="3">
-        <v>45985.24167701389</v>
+        <v>45987.43331310185</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1808,10 +1880,10 @@
         <v>720</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1820,13 +1892,13 @@
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1835,10 +1907,242 @@
         <v>45985.14627177083</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="O26" s="3">
         <v>45985.24167706018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>1280</v>
+      </c>
+      <c r="C27">
+        <v>720</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>45987.43331267361</v>
+      </c>
+      <c r="N27" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" s="3">
+        <v>45987.43331267361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>1680</v>
+      </c>
+      <c r="C28">
+        <v>265</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="3">
+        <v>45987.43331329861</v>
+      </c>
+      <c r="N28" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" s="3">
+        <v>45987.43331329861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>422</v>
+      </c>
+      <c r="C29">
+        <v>520</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" s="3">
+        <v>45987.43331329861</v>
+      </c>
+      <c r="N29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" s="3">
+        <v>45987.43331329861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>422</v>
+      </c>
+      <c r="C30">
+        <v>520</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="3">
+        <v>45987.43331331018</v>
+      </c>
+      <c r="N30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30" s="3">
+        <v>45987.43331331018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>422</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="3">
+        <v>45987.43331332176</v>
+      </c>
+      <c r="N31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O31" s="3">
+        <v>45987.43331332176</v>
       </c>
     </row>
   </sheetData>
@@ -1892,6 +2196,15 @@
     <hyperlink ref="I25" r:id="rId47"/>
     <hyperlink ref="H26" r:id="rId48"/>
     <hyperlink ref="I26" r:id="rId49"/>
+    <hyperlink ref="H27" r:id="rId50"/>
+    <hyperlink ref="I27" r:id="rId51"/>
+    <hyperlink ref="H28" r:id="rId52"/>
+    <hyperlink ref="I28" r:id="rId53"/>
+    <hyperlink ref="H29" r:id="rId54"/>
+    <hyperlink ref="I29" r:id="rId55"/>
+    <hyperlink ref="H30" r:id="rId56" location="buy"/>
+    <hyperlink ref="I30" r:id="rId57"/>
+    <hyperlink ref="I31" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="159">
   <si>
     <t>site</t>
   </si>
@@ -88,6 +88,9 @@
     <t>2025-11-26</t>
   </si>
   <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/reel/4123467941205726</t>
   </si>
   <si>
@@ -163,6 +166,36 @@
     <t>/post/view/43021</t>
   </si>
   <si>
+    <t>https://link.toki.mn/4unM</t>
+  </si>
+  <si>
+    <t>https://gwa.zangia.mn/2025.html?v1.2</t>
+  </si>
+  <si>
+    <t>https://news.mn/r/2837349/</t>
+  </si>
+  <si>
+    <t>https://www.golomtbank.com/news/50915</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/1G9ab3CN6y/?mibextid=wwXIfr</t>
+  </si>
+  <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7865/</t>
+  </si>
+  <si>
+    <t>https://www.golomtbank.com/news/48459</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=2d539c1373f1105bc16c2b0359999c3b</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=fa6b603fdc12da973ab25f1bd9ddee5f</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=379749266bd372848d7ab4bc882c9c77</t>
+  </si>
+  <si>
     <t>https://content.ikon.mn/raw/2025/11/11/18439/Sport_app_ikon_banner_1360x200_2.jpg</t>
   </si>
   <si>
@@ -238,6 +271,48 @@
     <t>https://graph.caak.mn/rails/active_storage/representations/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBMjhhQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--d2b7f6a9c7bd22a23bc5983f355107d5305cf49e/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2QzNKbGMybDZaVWtpRERVd01IZzFNREFHT3daVSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--0b219c26dacee4763e56c3b3bbf569e95bd63a7e/HM%20aztan%20banner.png</t>
   </si>
   <si>
+    <t>https://content.ikon.mn/raw/2025/12/12/18636/ikon.mn_1360x200.jpg</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/12/8/18607/CapitronBank_Swift__560x400.jpg</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/12/9/18611/800x400__3_.png</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/09/251205_ULNSM-Winter-Livery_1920x280px-1.jpg</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/12/HS-News.jpg</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/11/300.jpg</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/11/MN-new-year-cover.jpg</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/12/41851f63-b11f-4d25-96d9-2247e91d21ca-600x500.jpeg</t>
+  </si>
+  <si>
+    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/051b40ca-59e4-459a-889d-b207085c25aa/69329d2b518d92c5c433e87c_compressed.webp</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBelJNQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--bb7a2ab4f87a0ac0b98303fe2fc3344b7f9fbbc7/1900%20300%20caak,%20caaknews.png</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBM2xNQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--fe99d669477430d4b836c96062175d38498ec796/3_Caak.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/39/176483362313.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/39/176550753013.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/39/176553407913.png</t>
+  </si>
+  <si>
     <t>C:\Scraper\banner_screenshots\ikon_1763962869_1_649361d9.png</t>
   </si>
   <si>
@@ -250,22 +325,22 @@
     <t>C:\Scraper\banner_screenshots\ikon_1764152521_1_26cd4c0c.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1764152547_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1764152547_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1764152547_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1764152548_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\lemonpress_1764152548_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\news_1764152501_5_167ecfe9.png</t>
+    <t>banner_screenshots/lemonpress_1765791947_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1765791947_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1765791947_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1765791947_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1765791948_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1765791797_6_167ecfe9.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\news_1764152503_20_767f822f.png</t>
@@ -280,7 +355,7 @@
     <t>C:\Scraper\banner_screenshots\news_1764152525_7_5d66d2ef.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\bolortoli_1764152621_0_988754e7.png</t>
+    <t>banner_screenshots/bolortoli_1765791991_0_988754e7.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
@@ -292,10 +367,10 @@
     <t>C:\Scraper\banner_screenshots\gogo_1764152501_26_ef6fd160.png</t>
   </si>
   <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1764152503_34_020787f6.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\gogo_1764152508_138_e2d53d38.png</t>
+    <t>banner_screenshots/gogo_1765791723_34_020787f6.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1765791731_136_e2d53d38.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
@@ -328,6 +403,48 @@
     <t>C:\Scraper\banner_screenshots\caak_1764152556_3_d6c500cb.png</t>
   </si>
   <si>
+    <t>banner_screenshots/ikon_1765791737_1_ee094e6d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1765791758_1_180b6ed1.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1765791769_2_2b66b92a.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1765791785_5_1c5efbf5.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1765791786_22_b35122f0.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1765791788_64_63744233.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1765791788_69_ccf95ae7.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1765791798_23_5099a424.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1765791721_26_e5a1225e.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1765791965_0_e8a3ee95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1765791967_1_1dc68725.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1765791972_0_bd18a737.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1765791981_0_5a32e6f1.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1765792028_0_e48d3301.png</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -368,6 +485,12 @@
   </si>
   <si>
     <t>onpage_active_storage</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_A1?1765791435</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_B1?1765791435</t>
   </si>
 </sst>
 </file>
@@ -748,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -839,13 +962,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -854,7 +977,7 @@
         <v>45981.23287239583</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="O2" s="3">
         <v>45985.24167697917</v>
@@ -883,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -895,7 +1018,7 @@
         <v>45981.23287303241</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="O3" s="3">
         <v>45981.45297028935</v>
@@ -924,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -939,7 +1062,7 @@
         <v>45981.23287306713</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="O4" s="3">
         <v>45985.24167704861</v>
@@ -968,13 +1091,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -983,7 +1106,7 @@
         <v>45981.2328730787</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="O5" s="3">
         <v>45987.43331303241</v>
@@ -1003,22 +1126,22 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1027,10 +1150,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O6" s="3">
-        <v>45987.43331322916</v>
+        <v>46006.40792128472</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1047,22 +1170,22 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1071,10 +1194,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O7" s="3">
-        <v>45987.43331324074</v>
+        <v>46006.4079212963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1091,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1115,10 +1238,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O8" s="3">
-        <v>45987.43331326389</v>
+        <v>46006.4079212963</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1135,22 +1258,22 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1159,10 +1282,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O9" s="3">
-        <v>45987.43331327546</v>
+        <v>46006.4079212963</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1179,22 +1302,22 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1203,10 +1326,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O10" s="3">
-        <v>45987.43331328704</v>
+        <v>46006.40792130787</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1223,22 +1346,22 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1247,10 +1370,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O11" s="3">
-        <v>45987.433313125</v>
+        <v>46006.40792126158</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1276,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1291,7 +1414,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O12" s="3">
         <v>45987.43331315972</v>
@@ -1320,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1335,7 +1458,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O13" s="3">
         <v>45987.4333131713</v>
@@ -1364,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1379,7 +1502,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O14" s="3">
         <v>45987.43331319444</v>
@@ -1408,13 +1531,13 @@
         <v>8</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1423,7 +1546,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O15" s="3">
         <v>45987.43331320602</v>
@@ -1443,22 +1566,22 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1467,10 +1590,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N16" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O16" s="3">
-        <v>45987.43331335648</v>
+        <v>46006.40792131944</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1496,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1511,7 +1634,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N17" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O17" s="3">
         <v>45985.24167728009</v>
@@ -1540,13 +1663,13 @@
         <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1555,7 +1678,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O18" s="3">
         <v>45987.43331333333</v>
@@ -1584,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1599,7 +1722,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O19" s="3">
         <v>45987.43331335648</v>
@@ -1619,22 +1742,22 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1643,10 +1766,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O20" s="3">
-        <v>45987.43331336806</v>
+        <v>46006.40792128472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1663,22 +1786,22 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1687,10 +1810,10 @@
         <v>45981.23287315972</v>
       </c>
       <c r="N21" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O21" s="3">
-        <v>45987.43331337963</v>
+        <v>46006.40792128472</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1716,13 +1839,13 @@
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1731,7 +1854,7 @@
         <v>45981.24228215278</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O22" s="3">
         <v>45985.14627189815</v>
@@ -1760,13 +1883,13 @@
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1775,7 +1898,7 @@
         <v>45981.24228216435</v>
       </c>
       <c r="N23" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O23" s="3">
         <v>45987.43331334491</v>
@@ -1804,13 +1927,13 @@
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1819,7 +1942,7 @@
         <v>45981.24228217592</v>
       </c>
       <c r="N24" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O24" s="3">
         <v>45987.43331333333</v>
@@ -1848,13 +1971,13 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1863,7 +1986,7 @@
         <v>45981.27268214121</v>
       </c>
       <c r="N25" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="O25" s="3">
         <v>45987.43331310185</v>
@@ -1892,13 +2015,13 @@
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1907,7 +2030,7 @@
         <v>45985.14627177083</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="O26" s="3">
         <v>45985.24167706018</v>
@@ -1936,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1951,7 +2074,7 @@
         <v>45987.43331267361</v>
       </c>
       <c r="N27" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="O27" s="3">
         <v>45987.43331267361</v>
@@ -1980,25 +2103,25 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="L28" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M28" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N28" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O28" s="3">
         <v>45987.43331329861</v>
@@ -2027,25 +2150,25 @@
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M29" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N29" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O29" s="3">
         <v>45987.43331329861</v>
@@ -2074,25 +2197,25 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M30" s="3">
         <v>45987.43331331018</v>
       </c>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O30" s="3">
         <v>45987.43331331018</v>
@@ -2121,28 +2244,650 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="M31" s="3">
         <v>45987.43331332176</v>
       </c>
       <c r="N31" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="O31" s="3">
         <v>45987.43331332176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>1280</v>
+      </c>
+      <c r="C32">
+        <v>720</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>46006.40792114583</v>
+      </c>
+      <c r="N32" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" s="3">
+        <v>46006.40792114583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>1280</v>
+      </c>
+      <c r="C33">
+        <v>720</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>46006.4079212037</v>
+      </c>
+      <c r="N33" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="3">
+        <v>46006.4079212037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>1280</v>
+      </c>
+      <c r="C34">
+        <v>720</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>46006.40792121528</v>
+      </c>
+      <c r="N34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" s="3">
+        <v>46006.40792121528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>970</v>
+      </c>
+      <c r="C35">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>46006.40792121528</v>
+      </c>
+      <c r="N35" t="s">
+        <v>151</v>
+      </c>
+      <c r="O35" s="3">
+        <v>46006.40792121528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>299</v>
+      </c>
+      <c r="C36">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>46006.40792122686</v>
+      </c>
+      <c r="N36" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" s="3">
+        <v>46006.40792122686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>299</v>
+      </c>
+      <c r="C37">
+        <v>299</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>46006.40792125</v>
+      </c>
+      <c r="N37" t="s">
+        <v>151</v>
+      </c>
+      <c r="O37" s="3">
+        <v>46006.40792125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>1170</v>
+      </c>
+      <c r="C38">
+        <v>444</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>46006.40792126158</v>
+      </c>
+      <c r="N38" t="s">
+        <v>151</v>
+      </c>
+      <c r="O38" s="3">
+        <v>46006.40792126158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>299</v>
+      </c>
+      <c r="C39">
+        <v>249</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>46006.40792127314</v>
+      </c>
+      <c r="N39" t="s">
+        <v>151</v>
+      </c>
+      <c r="O39" s="3">
+        <v>46006.40792127314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>1100</v>
+      </c>
+      <c r="C40">
+        <v>483</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>46006.40792127314</v>
+      </c>
+      <c r="N40" t="s">
+        <v>152</v>
+      </c>
+      <c r="O40" s="3">
+        <v>46006.40792127314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>1680</v>
+      </c>
+      <c r="C41">
+        <v>265</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" t="s">
+        <v>145</v>
+      </c>
+      <c r="M41" s="3">
+        <v>46006.40792130787</v>
+      </c>
+      <c r="N41" t="s">
+        <v>152</v>
+      </c>
+      <c r="O41" s="3">
+        <v>46006.40792130787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>422</v>
+      </c>
+      <c r="C42">
+        <v>520</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M42" s="3">
+        <v>46006.40792130787</v>
+      </c>
+      <c r="N42" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42" s="3">
+        <v>46006.40792130787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>1600</v>
+      </c>
+      <c r="C43">
+        <v>579</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" t="s">
+        <v>140</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>46006.40792131944</v>
+      </c>
+      <c r="N43" t="s">
+        <v>152</v>
+      </c>
+      <c r="O43" s="3">
+        <v>46006.40792131944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>1599</v>
+      </c>
+      <c r="C44">
+        <v>579</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" t="s">
+        <v>141</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>46006.40792131944</v>
+      </c>
+      <c r="N44" t="s">
+        <v>152</v>
+      </c>
+      <c r="O44" s="3">
+        <v>46006.40792131944</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>1600</v>
+      </c>
+      <c r="C45">
+        <v>579</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>46006.40792131944</v>
+      </c>
+      <c r="N45" t="s">
+        <v>152</v>
+      </c>
+      <c r="O45" s="3">
+        <v>46006.40792131944</v>
       </c>
     </row>
   </sheetData>
@@ -2205,6 +2950,34 @@
     <hyperlink ref="H30" r:id="rId56" location="buy"/>
     <hyperlink ref="I30" r:id="rId57"/>
     <hyperlink ref="I31" r:id="rId58"/>
+    <hyperlink ref="H32" r:id="rId59"/>
+    <hyperlink ref="I32" r:id="rId60"/>
+    <hyperlink ref="H33" r:id="rId61"/>
+    <hyperlink ref="I33" r:id="rId62"/>
+    <hyperlink ref="H34" r:id="rId63"/>
+    <hyperlink ref="I34" r:id="rId64"/>
+    <hyperlink ref="H35" r:id="rId65"/>
+    <hyperlink ref="I35" r:id="rId66"/>
+    <hyperlink ref="H36" r:id="rId67"/>
+    <hyperlink ref="I36" r:id="rId68"/>
+    <hyperlink ref="H37" r:id="rId69"/>
+    <hyperlink ref="I37" r:id="rId70"/>
+    <hyperlink ref="H38" r:id="rId71"/>
+    <hyperlink ref="I38" r:id="rId72"/>
+    <hyperlink ref="H39" r:id="rId73"/>
+    <hyperlink ref="I39" r:id="rId74"/>
+    <hyperlink ref="H40" r:id="rId75"/>
+    <hyperlink ref="I40" r:id="rId76"/>
+    <hyperlink ref="H41" r:id="rId77"/>
+    <hyperlink ref="I41" r:id="rId78"/>
+    <hyperlink ref="H42" r:id="rId79"/>
+    <hyperlink ref="I42" r:id="rId80"/>
+    <hyperlink ref="H43" r:id="rId81"/>
+    <hyperlink ref="I43" r:id="rId82"/>
+    <hyperlink ref="H44" r:id="rId83"/>
+    <hyperlink ref="I44" r:id="rId84"/>
+    <hyperlink ref="H45" r:id="rId85"/>
+    <hyperlink ref="I45" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="176">
   <si>
     <t>site</t>
   </si>
@@ -91,6 +91,9 @@
     <t>2025-12-15</t>
   </si>
   <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/reel/4123467941205726</t>
   </si>
   <si>
@@ -196,6 +199,12 @@
     <t>https://banner.bolor.net/pub/jump?t=379749266bd372848d7ab4bc882c9c77</t>
   </si>
   <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7854/</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=81a2c5d757c19a6a17bd19e8d49fbba5</t>
+  </si>
+  <si>
     <t>https://content.ikon.mn/raw/2025/11/11/18439/Sport_app_ikon_banner_1360x200_2.jpg</t>
   </si>
   <si>
@@ -313,6 +322,24 @@
     <t>https://banner.bolor.net/files/39/176553407913.png</t>
   </si>
   <si>
+    <t>https://content.ikon.mn/raw/2025/12/16/18653/Mbank_ApplePay_Digitalplacement_2_2.png</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/12/16/18654/Mbank_ApplePay_Digitalplacement_1_2.png</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/12/3/18592/560.jpg</t>
+  </si>
+  <si>
+    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e6cdc94f-052a-4452-90cb-630f7f91cd5c/694097ae0e4e7f67435bb357_compressed.webp</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBeHRJQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--e69075327c021f8651b7cc8515edc4812b5bf1d0/Khan%20New%20year%20A2.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176612259913.jpg</t>
+  </si>
+  <si>
     <t>C:\Scraper\banner_screenshots\ikon_1763962869_1_649361d9.png</t>
   </si>
   <si>
@@ -325,22 +352,22 @@
     <t>C:\Scraper\banner_screenshots\ikon_1764152521_1_26cd4c0c.png</t>
   </si>
   <si>
-    <t>banner_screenshots/lemonpress_1765791947_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1765791947_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1765791947_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1765791947_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1765791948_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1765791797_6_167ecfe9.png</t>
+    <t>banner_screenshots/lemonpress_1766127421_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766127421_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766127421_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766127421_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766127421_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766127230_6_167ecfe9.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\news_1764152503_20_767f822f.png</t>
@@ -355,7 +382,7 @@
     <t>C:\Scraper\banner_screenshots\news_1764152525_7_5d66d2ef.png</t>
   </si>
   <si>
-    <t>banner_screenshots/bolortoli_1765791991_0_988754e7.png</t>
+    <t>banner_screenshots/bolortoli_1766127462_0_988754e7.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
@@ -367,10 +394,10 @@
     <t>C:\Scraper\banner_screenshots\gogo_1764152501_26_ef6fd160.png</t>
   </si>
   <si>
-    <t>banner_screenshots/gogo_1765791723_34_020787f6.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1765791731_136_e2d53d38.png</t>
+    <t>banner_screenshots/gogo_1766127143_34_020787f6.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1766127146_137_e2d53d38.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
@@ -403,7 +430,7 @@
     <t>C:\Scraper\banner_screenshots\caak_1764152556_3_d6c500cb.png</t>
   </si>
   <si>
-    <t>banner_screenshots/ikon_1765791737_1_ee094e6d.png</t>
+    <t>banner_screenshots/ikon_1766127173_2_ee094e6d.png</t>
   </si>
   <si>
     <t>banner_screenshots/ikon_1765791758_1_180b6ed1.png</t>
@@ -412,37 +439,55 @@
     <t>banner_screenshots/ikon_1765791769_2_2b66b92a.png</t>
   </si>
   <si>
-    <t>banner_screenshots/news_1765791785_5_1c5efbf5.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1765791786_22_b35122f0.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1765791788_64_63744233.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1765791788_69_ccf95ae7.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1765791798_23_5099a424.png</t>
+    <t>banner_screenshots/news_1766127212_5_1c5efbf5.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766127216_22_b35122f0.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766127218_64_63744233.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766127220_69_ccf95ae7.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766127245_23_5099a424.png</t>
   </si>
   <si>
     <t>banner_screenshots/gogo_1765791721_26_e5a1225e.png</t>
   </si>
   <si>
-    <t>banner_screenshots/caak_1765791965_0_e8a3ee95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1765791967_1_1dc68725.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1765791972_0_bd18a737.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1765791981_0_5a32e6f1.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1765792028_0_e48d3301.png</t>
+    <t>banner_screenshots/caak_1766127433_0_e8a3ee95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1766127435_1_1dc68725.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766127494_0_bd18a737.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766127453_0_5a32e6f1.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766127486_0_e48d3301.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766127162_1_07def81d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766127185_1_b76fdb5d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766127196_2_f6fa2762.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1766127141_26_2a184300.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1766127503_0_56acdb22.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766127445_0_f334782e.png</t>
   </si>
   <si>
     <t>3</t>
@@ -491,6 +536,12 @@
   </si>
   <si>
     <t>from_ad_page:https://ikon.mn/ad/IKONMN_B1?1765791435</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_A1?1766126615</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_B1?1766126614</t>
   </si>
 </sst>
 </file>
@@ -871,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -962,13 +1013,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -977,7 +1028,7 @@
         <v>45981.23287239583</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O2" s="3">
         <v>45985.24167697917</v>
@@ -1006,10 +1057,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1018,7 +1069,7 @@
         <v>45981.23287303241</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O3" s="3">
         <v>45981.45297028935</v>
@@ -1047,13 +1098,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1062,7 +1113,7 @@
         <v>45981.23287306713</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O4" s="3">
         <v>45985.24167704861</v>
@@ -1091,13 +1142,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1106,7 +1157,7 @@
         <v>45981.2328730787</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O5" s="3">
         <v>45987.43331303241</v>
@@ -1126,22 +1177,22 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1150,10 +1201,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N6" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O6" s="3">
-        <v>46006.40792128472</v>
+        <v>46010.29087408565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1170,22 +1221,22 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1194,10 +1245,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O7" s="3">
-        <v>46006.4079212963</v>
+        <v>46010.29087408565</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1214,22 +1265,22 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1238,10 +1289,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N8" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O8" s="3">
-        <v>46006.4079212963</v>
+        <v>46010.29087408565</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1258,22 +1309,22 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1282,10 +1333,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N9" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O9" s="3">
-        <v>46006.4079212963</v>
+        <v>46010.29087408565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1302,22 +1353,22 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1326,10 +1377,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O10" s="3">
-        <v>46006.40792130787</v>
+        <v>46010.29087409722</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1346,22 +1397,22 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1370,10 +1421,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O11" s="3">
-        <v>46006.40792126158</v>
+        <v>46010.29087405092</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1399,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1414,7 +1465,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O12" s="3">
         <v>45987.43331315972</v>
@@ -1443,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1458,7 +1509,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O13" s="3">
         <v>45987.4333131713</v>
@@ -1487,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1502,7 +1553,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O14" s="3">
         <v>45987.43331319444</v>
@@ -1531,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1546,7 +1597,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O15" s="3">
         <v>45987.43331320602</v>
@@ -1566,22 +1617,22 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1590,10 +1641,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O16" s="3">
-        <v>46006.40792131944</v>
+        <v>46010.2908741088</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1619,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1634,7 +1685,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O17" s="3">
         <v>45985.24167728009</v>
@@ -1663,13 +1714,13 @@
         <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1678,7 +1729,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O18" s="3">
         <v>45987.43331333333</v>
@@ -1707,13 +1758,13 @@
         <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1722,7 +1773,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O19" s="3">
         <v>45987.43331335648</v>
@@ -1742,22 +1793,22 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1766,10 +1817,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O20" s="3">
-        <v>46006.40792128472</v>
+        <v>46010.29087407407</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1786,22 +1837,22 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1810,10 +1861,10 @@
         <v>45981.23287315972</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O21" s="3">
-        <v>46006.40792128472</v>
+        <v>46010.29087407407</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1839,13 +1890,13 @@
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1854,7 +1905,7 @@
         <v>45981.24228215278</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O22" s="3">
         <v>45985.14627189815</v>
@@ -1883,13 +1934,13 @@
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1898,7 +1949,7 @@
         <v>45981.24228216435</v>
       </c>
       <c r="N23" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O23" s="3">
         <v>45987.43331334491</v>
@@ -1927,13 +1978,13 @@
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1942,7 +1993,7 @@
         <v>45981.24228217592</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O24" s="3">
         <v>45987.43331333333</v>
@@ -1971,13 +2022,13 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1986,7 +2037,7 @@
         <v>45981.27268214121</v>
       </c>
       <c r="N25" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O25" s="3">
         <v>45987.43331310185</v>
@@ -2015,13 +2066,13 @@
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2030,7 +2081,7 @@
         <v>45985.14627177083</v>
       </c>
       <c r="N26" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O26" s="3">
         <v>45985.24167706018</v>
@@ -2059,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2074,7 +2125,7 @@
         <v>45987.43331267361</v>
       </c>
       <c r="N27" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O27" s="3">
         <v>45987.43331267361</v>
@@ -2103,25 +2154,25 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M28" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N28" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O28" s="3">
         <v>45987.43331329861</v>
@@ -2150,25 +2201,25 @@
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M29" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N29" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O29" s="3">
         <v>45987.43331329861</v>
@@ -2197,25 +2248,25 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M30" s="3">
         <v>45987.43331331018</v>
       </c>
       <c r="N30" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O30" s="3">
         <v>45987.43331331018</v>
@@ -2244,25 +2295,25 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M31" s="3">
         <v>45987.43331332176</v>
       </c>
       <c r="N31" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O31" s="3">
         <v>45987.43331332176</v>
@@ -2282,22 +2333,22 @@
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2306,10 +2357,10 @@
         <v>46006.40792114583</v>
       </c>
       <c r="N32" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="O32" s="3">
-        <v>46006.40792114583</v>
+        <v>46010.29087396991</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2335,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2350,7 +2401,7 @@
         <v>46006.4079212037</v>
       </c>
       <c r="N33" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O33" s="3">
         <v>46006.4079212037</v>
@@ -2379,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2394,7 +2445,7 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N34" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O34" s="3">
         <v>46006.40792121528</v>
@@ -2414,22 +2465,22 @@
         <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2438,10 +2489,10 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N35" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O35" s="3">
-        <v>46006.40792121528</v>
+        <v>46010.29087403935</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2458,22 +2509,22 @@
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2482,10 +2533,10 @@
         <v>46006.40792122686</v>
       </c>
       <c r="N36" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O36" s="3">
-        <v>46006.40792122686</v>
+        <v>46010.29087405092</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2502,22 +2553,22 @@
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2526,10 +2577,10 @@
         <v>46006.40792125</v>
       </c>
       <c r="N37" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O37" s="3">
-        <v>46006.40792125</v>
+        <v>46010.29087405092</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2546,22 +2597,22 @@
         <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2570,10 +2621,10 @@
         <v>46006.40792126158</v>
       </c>
       <c r="N38" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O38" s="3">
-        <v>46006.40792126158</v>
+        <v>46010.29087405092</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2590,22 +2641,22 @@
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2614,10 +2665,10 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N39" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O39" s="3">
-        <v>46006.40792127314</v>
+        <v>46010.2908740625</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2643,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2658,7 +2709,7 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N40" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O40" s="3">
         <v>46006.40792127314</v>
@@ -2678,37 +2729,37 @@
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L41" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M41" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N41" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O41" s="3">
-        <v>46006.40792130787</v>
+        <v>46010.29087409722</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2725,37 +2776,37 @@
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M42" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N42" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O42" s="3">
-        <v>46006.40792130787</v>
+        <v>46010.29087409722</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2772,22 +2823,22 @@
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2796,10 +2847,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N43" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O43" s="3">
-        <v>46006.40792131944</v>
+        <v>46010.29087412037</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2807,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="B44">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C44">
         <v>579</v>
@@ -2816,22 +2867,22 @@
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2840,10 +2891,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N44" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O44" s="3">
-        <v>46006.40792131944</v>
+        <v>46010.2908741088</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2860,22 +2911,22 @@
         <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2884,10 +2935,277 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N45" t="s">
+        <v>167</v>
+      </c>
+      <c r="O45" s="3">
+        <v>46010.29087412037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>1280</v>
+      </c>
+      <c r="C46">
+        <v>720</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" t="s">
         <v>152</v>
       </c>
-      <c r="O45" s="3">
-        <v>46006.40792131944</v>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>46010.29087371528</v>
+      </c>
+      <c r="N46" t="s">
+        <v>174</v>
+      </c>
+      <c r="O46" s="3">
+        <v>46010.29087371528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>1280</v>
+      </c>
+      <c r="C47">
+        <v>720</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>46010.29087402778</v>
+      </c>
+      <c r="N47" t="s">
+        <v>175</v>
+      </c>
+      <c r="O47" s="3">
+        <v>46010.29087402778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>1280</v>
+      </c>
+      <c r="C48">
+        <v>720</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>46010.29087403935</v>
+      </c>
+      <c r="N48" t="s">
+        <v>175</v>
+      </c>
+      <c r="O48" s="3">
+        <v>46010.29087403935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>1100</v>
+      </c>
+      <c r="C49">
+        <v>483</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J49" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>46010.2908740625</v>
+      </c>
+      <c r="N49" t="s">
+        <v>167</v>
+      </c>
+      <c r="O49" s="3">
+        <v>46010.2908740625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>422</v>
+      </c>
+      <c r="C50">
+        <v>520</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50" t="s">
+        <v>158</v>
+      </c>
+      <c r="L50" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50" s="3">
+        <v>46010.29087409722</v>
+      </c>
+      <c r="N50" t="s">
+        <v>167</v>
+      </c>
+      <c r="O50" s="3">
+        <v>46010.29087409722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>1600</v>
+      </c>
+      <c r="C51">
+        <v>579</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>46010.2908741088</v>
+      </c>
+      <c r="N51" t="s">
+        <v>167</v>
+      </c>
+      <c r="O51" s="3">
+        <v>46010.2908741088</v>
       </c>
     </row>
   </sheetData>
@@ -2978,6 +3296,18 @@
     <hyperlink ref="I44" r:id="rId84"/>
     <hyperlink ref="H45" r:id="rId85"/>
     <hyperlink ref="I45" r:id="rId86"/>
+    <hyperlink ref="H46" r:id="rId87"/>
+    <hyperlink ref="I46" r:id="rId88"/>
+    <hyperlink ref="H47" r:id="rId89"/>
+    <hyperlink ref="I47" r:id="rId90"/>
+    <hyperlink ref="H48" r:id="rId91"/>
+    <hyperlink ref="I48" r:id="rId92"/>
+    <hyperlink ref="H49" r:id="rId93"/>
+    <hyperlink ref="I49" r:id="rId94"/>
+    <hyperlink ref="H50" r:id="rId95"/>
+    <hyperlink ref="I50" r:id="rId96"/>
+    <hyperlink ref="H51" r:id="rId97"/>
+    <hyperlink ref="I51" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -172,6 +172,9 @@
     <t>https://link.toki.mn/4unM</t>
   </si>
   <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7865/</t>
+  </si>
+  <si>
     <t>https://gwa.zangia.mn/2025.html?v1.2</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
     <t>https://www.facebook.com/share/1G9ab3CN6y/?mibextid=wwXIfr</t>
   </si>
   <si>
-    <t>https://www.khanbank.com/personal/news/intelligence/7865/</t>
-  </si>
-  <si>
     <t>https://www.golomtbank.com/news/48459</t>
   </si>
   <si>
@@ -352,22 +352,22 @@
     <t>C:\Scraper\banner_screenshots\ikon_1764152521_1_26cd4c0c.png</t>
   </si>
   <si>
-    <t>banner_screenshots/lemonpress_1766127421_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766127421_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766127421_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766127421_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766127421_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766127230_6_167ecfe9.png</t>
+    <t>banner_screenshots/lemonpress_1766129194_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766129194_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766129194_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766129194_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766129195_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766129093_6_167ecfe9.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\news_1764152503_20_767f822f.png</t>
@@ -382,7 +382,7 @@
     <t>C:\Scraper\banner_screenshots\news_1764152525_7_5d66d2ef.png</t>
   </si>
   <si>
-    <t>banner_screenshots/bolortoli_1766127462_0_988754e7.png</t>
+    <t>banner_screenshots/bolortoli_1766129281_0_988754e7.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
@@ -394,10 +394,10 @@
     <t>C:\Scraper\banner_screenshots\gogo_1764152501_26_ef6fd160.png</t>
   </si>
   <si>
-    <t>banner_screenshots/gogo_1766127143_34_020787f6.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1766127146_137_e2d53d38.png</t>
+    <t>banner_screenshots/gogo_1766129011_34_020787f6.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1766129016_136_e2d53d38.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
@@ -430,64 +430,64 @@
     <t>C:\Scraper\banner_screenshots\caak_1764152556_3_d6c500cb.png</t>
   </si>
   <si>
-    <t>banner_screenshots/ikon_1766127173_2_ee094e6d.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1765791758_1_180b6ed1.png</t>
+    <t>banner_screenshots/ikon_1766129034_1_ee094e6d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766129056_1_180b6ed1.png</t>
   </si>
   <si>
     <t>banner_screenshots/ikon_1765791769_2_2b66b92a.png</t>
   </si>
   <si>
-    <t>banner_screenshots/news_1766127212_5_1c5efbf5.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766127216_22_b35122f0.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766127218_64_63744233.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766127220_69_ccf95ae7.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766127245_23_5099a424.png</t>
+    <t>banner_screenshots/news_1766129082_5_1c5efbf5.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766129084_22_b35122f0.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766129085_64_63744233.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766129086_69_ccf95ae7.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766129094_23_5099a424.png</t>
   </si>
   <si>
     <t>banner_screenshots/gogo_1765791721_26_e5a1225e.png</t>
   </si>
   <si>
-    <t>banner_screenshots/caak_1766127433_0_e8a3ee95.png</t>
+    <t>banner_screenshots/caak_1766129218_0_e8a3ee95.png</t>
   </si>
   <si>
     <t>banner_screenshots/caak_1766127435_1_1dc68725.png</t>
   </si>
   <si>
-    <t>banner_screenshots/bolortoli_1766127494_0_bd18a737.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766127453_0_5a32e6f1.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766127486_0_e48d3301.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766127162_1_07def81d.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766127185_1_b76fdb5d.png</t>
+    <t>banner_screenshots/bolortoli_1766129257_0_bd18a737.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766129273_0_5a32e6f1.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766129249_0_e48d3301.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766129045_2_07def81d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766129067_2_b76fdb5d.png</t>
   </si>
   <si>
     <t>banner_screenshots/ikon_1766127196_2_f6fa2762.png</t>
   </si>
   <si>
-    <t>banner_screenshots/gogo_1766127141_26_2a184300.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766127503_0_56acdb22.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766127445_0_f334782e.png</t>
+    <t>banner_screenshots/gogo_1766129010_26_2a184300.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1766129221_1_56acdb22.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766129265_0_f334782e.png</t>
   </si>
   <si>
     <t>3</t>
@@ -1180,10 +1180,10 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1204,7 +1204,7 @@
         <v>165</v>
       </c>
       <c r="O6" s="3">
-        <v>46010.29087408565</v>
+        <v>46010.3115596875</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1224,10 +1224,10 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>30</v>
@@ -1248,7 +1248,7 @@
         <v>165</v>
       </c>
       <c r="O7" s="3">
-        <v>46010.29087408565</v>
+        <v>46010.31155969908</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1268,10 +1268,10 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
@@ -1292,7 +1292,7 @@
         <v>165</v>
       </c>
       <c r="O8" s="3">
-        <v>46010.29087408565</v>
+        <v>46010.31155971065</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1312,10 +1312,10 @@
         <v>25</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>32</v>
@@ -1336,7 +1336,7 @@
         <v>165</v>
       </c>
       <c r="O9" s="3">
-        <v>46010.29087408565</v>
+        <v>46010.31155971065</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1356,10 +1356,10 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>33</v>
@@ -1380,7 +1380,7 @@
         <v>165</v>
       </c>
       <c r="O10" s="3">
-        <v>46010.29087409722</v>
+        <v>46010.31155972222</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1400,10 +1400,10 @@
         <v>25</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>34</v>
@@ -1424,7 +1424,7 @@
         <v>166</v>
       </c>
       <c r="O11" s="3">
-        <v>46010.29087405092</v>
+        <v>46010.31155966435</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1620,10 +1620,10 @@
         <v>25</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>38</v>
@@ -1644,7 +1644,7 @@
         <v>167</v>
       </c>
       <c r="O16" s="3">
-        <v>46010.2908741088</v>
+        <v>46010.31155975694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1796,10 +1796,10 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>41</v>
@@ -1820,7 +1820,7 @@
         <v>165</v>
       </c>
       <c r="O20" s="3">
-        <v>46010.29087407407</v>
+        <v>46010.31155967592</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1840,10 +1840,10 @@
         <v>25</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>41</v>
@@ -1864,7 +1864,7 @@
         <v>165</v>
       </c>
       <c r="O21" s="3">
-        <v>46010.29087407407</v>
+        <v>46010.3115596875</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2336,10 +2336,10 @@
         <v>25</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>51</v>
@@ -2360,7 +2360,7 @@
         <v>172</v>
       </c>
       <c r="O32" s="3">
-        <v>46010.29087396991</v>
+        <v>46010.31155960648</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2377,13 +2377,13 @@
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>52</v>
@@ -2404,7 +2404,7 @@
         <v>173</v>
       </c>
       <c r="O33" s="3">
-        <v>46006.4079212037</v>
+        <v>46010.31155962963</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>90</v>
@@ -2468,10 +2468,10 @@
         <v>25</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>37</v>
@@ -2492,7 +2492,7 @@
         <v>166</v>
       </c>
       <c r="O35" s="3">
-        <v>46010.29087403935</v>
+        <v>46010.3115596412</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>92</v>
@@ -2536,7 +2536,7 @@
         <v>166</v>
       </c>
       <c r="O36" s="3">
-        <v>46010.29087405092</v>
+        <v>46010.3115596412</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>93</v>
@@ -2580,7 +2580,7 @@
         <v>166</v>
       </c>
       <c r="O37" s="3">
-        <v>46010.29087405092</v>
+        <v>46010.3115596412</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>94</v>
@@ -2624,7 +2624,7 @@
         <v>166</v>
       </c>
       <c r="O38" s="3">
-        <v>46010.29087405092</v>
+        <v>46010.31155966435</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>95</v>
@@ -2668,7 +2668,7 @@
         <v>166</v>
       </c>
       <c r="O39" s="3">
-        <v>46010.2908740625</v>
+        <v>46010.31155967592</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2732,10 +2732,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>57</v>
@@ -2759,7 +2759,7 @@
         <v>167</v>
       </c>
       <c r="O41" s="3">
-        <v>46010.29087409722</v>
+        <v>46010.3115597338</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2785,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>98</v>
@@ -2826,10 +2826,10 @@
         <v>25</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>58</v>
@@ -2850,7 +2850,7 @@
         <v>167</v>
       </c>
       <c r="O43" s="3">
-        <v>46010.29087412037</v>
+        <v>46010.31155974537</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2870,10 +2870,10 @@
         <v>25</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>59</v>
@@ -2894,7 +2894,7 @@
         <v>167</v>
       </c>
       <c r="O44" s="3">
-        <v>46010.2908741088</v>
+        <v>46010.31155974537</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2914,10 +2914,10 @@
         <v>25</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>60</v>
@@ -2938,7 +2938,7 @@
         <v>167</v>
       </c>
       <c r="O45" s="3">
-        <v>46010.29087412037</v>
+        <v>46010.3115597338</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2958,10 +2958,10 @@
         <v>25</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>51</v>
@@ -2982,7 +2982,7 @@
         <v>174</v>
       </c>
       <c r="O46" s="3">
-        <v>46010.29087371528</v>
+        <v>46010.31155961806</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3002,13 +3002,13 @@
         <v>25</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>103</v>
@@ -3026,7 +3026,7 @@
         <v>175</v>
       </c>
       <c r="O47" s="3">
-        <v>46010.29087402778</v>
+        <v>46010.3115596412</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>104</v>
@@ -3090,10 +3090,10 @@
         <v>25</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>41</v>
@@ -3114,7 +3114,7 @@
         <v>167</v>
       </c>
       <c r="O49" s="3">
-        <v>46010.2908740625</v>
+        <v>46010.31155967592</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3134,10 +3134,10 @@
         <v>25</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>61</v>
@@ -3161,7 +3161,7 @@
         <v>167</v>
       </c>
       <c r="O50" s="3">
-        <v>46010.29087409722</v>
+        <v>46010.3115597338</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3181,10 +3181,10 @@
         <v>25</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>62</v>
@@ -3205,7 +3205,7 @@
         <v>167</v>
       </c>
       <c r="O51" s="3">
-        <v>46010.2908741088</v>
+        <v>46010.31155974537</v>
       </c>
     </row>
   </sheetData>

--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="195">
   <si>
     <t>site</t>
   </si>
   <si>
+    <t>brand</t>
+  </si>
+  <si>
     <t>width</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
     <t>days_seen</t>
   </si>
   <si>
-    <t>times_seen</t>
-  </si>
-  <si>
     <t>landing_url</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>updated_at</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>ikon.mn</t>
   </si>
   <si>
@@ -79,6 +82,39 @@
     <t>caak.mn</t>
   </si>
   <si>
+    <t>Ikon.mn</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>News.mn</t>
+  </si>
+  <si>
+    <t>ХХБ (TDB)</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>GoGo.mn</t>
+  </si>
+  <si>
+    <t>Univision</t>
+  </si>
+  <si>
+    <t>Хаан Банк</t>
+  </si>
+  <si>
+    <t>Caak.mn</t>
+  </si>
+  <si>
+    <t>Toki</t>
+  </si>
+  <si>
+    <t>Голомт Банк</t>
+  </si>
+  <si>
     <t>2025-11-20</t>
   </si>
   <si>
@@ -94,6 +130,9 @@
     <t>2025-12-19</t>
   </si>
   <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/reel/4123467941205726</t>
   </si>
   <si>
@@ -340,6 +379,12 @@
     <t>https://banner.bolor.net/files/37/176612259913.jpg</t>
   </si>
   <si>
+    <t>https://content.ikon.mn/raw/2025/12/8/18596/1_Ikon.jpg</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/12/1/18568/560x400..png</t>
+  </si>
+  <si>
     <t>C:\Scraper\banner_screenshots\ikon_1763962869_1_649361d9.png</t>
   </si>
   <si>
@@ -352,22 +397,22 @@
     <t>C:\Scraper\banner_screenshots\ikon_1764152521_1_26cd4c0c.png</t>
   </si>
   <si>
-    <t>banner_screenshots/lemonpress_1766129194_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766129194_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766129194_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766129194_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766129195_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766129093_6_167ecfe9.png</t>
+    <t>banner_screenshots/lemonpress_1766383421_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766383422_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766383422_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766383422_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766383422_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766383190_6_167ecfe9.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\news_1764152503_20_767f822f.png</t>
@@ -382,7 +427,7 @@
     <t>C:\Scraper\banner_screenshots\news_1764152525_7_5d66d2ef.png</t>
   </si>
   <si>
-    <t>banner_screenshots/bolortoli_1766129281_0_988754e7.png</t>
+    <t>banner_screenshots/bolortoli_1766383463_0_988754e7.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
@@ -394,10 +439,10 @@
     <t>C:\Scraper\banner_screenshots\gogo_1764152501_26_ef6fd160.png</t>
   </si>
   <si>
-    <t>banner_screenshots/gogo_1766129011_34_020787f6.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1766129016_136_e2d53d38.png</t>
+    <t>banner_screenshots/gogo_1766383098_35_020787f6.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1766383102_141_e2d53d38.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
@@ -430,7 +475,7 @@
     <t>C:\Scraper\banner_screenshots\caak_1764152556_3_d6c500cb.png</t>
   </si>
   <si>
-    <t>banner_screenshots/ikon_1766129034_1_ee094e6d.png</t>
+    <t>banner_screenshots/ikon_1766383116_1_ee094e6d.png</t>
   </si>
   <si>
     <t>banner_screenshots/ikon_1766129056_1_180b6ed1.png</t>
@@ -439,55 +484,61 @@
     <t>banner_screenshots/ikon_1765791769_2_2b66b92a.png</t>
   </si>
   <si>
-    <t>banner_screenshots/news_1766129082_5_1c5efbf5.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766129084_22_b35122f0.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766129085_64_63744233.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766129086_69_ccf95ae7.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766129094_23_5099a424.png</t>
+    <t>banner_screenshots/news_1766383176_5_1c5efbf5.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766383179_22_b35122f0.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766383180_64_63744233.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766383181_69_ccf95ae7.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766383192_23_5099a424.png</t>
   </si>
   <si>
     <t>banner_screenshots/gogo_1765791721_26_e5a1225e.png</t>
   </si>
   <si>
-    <t>banner_screenshots/caak_1766129218_0_e8a3ee95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766127435_1_1dc68725.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766129257_0_bd18a737.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766129273_0_5a32e6f1.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766129249_0_e48d3301.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766129045_2_07def81d.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766129067_2_b76fdb5d.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766127196_2_f6fa2762.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1766129010_26_2a184300.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766129221_1_56acdb22.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766129265_0_f334782e.png</t>
+    <t>banner_screenshots/caak_1766383422_0_e8a3ee95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1766376360_1_1dc68725.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766383497_0_bd18a737.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766383455_0_5a32e6f1.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766383472_0_e48d3301.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766383126_2_07def81d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766378932_1_b76fdb5d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766383148_2_f6fa2762.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1766383097_26_2a184300.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1766383425_1_56acdb22.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766383446_0_f334782e.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766377899_2_1225693d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766383137_1_7f1ee0a6.png</t>
   </si>
   <si>
     <t>3</t>
@@ -542,6 +593,12 @@
   </si>
   <si>
     <t>from_ad_page:https://ikon.mn/ad/IKONMN_B1?1766126614</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_B1?1766375609</t>
+  </si>
+  <si>
+    <t>from_ad_page:https://ikon.mn/ad/IKONMN_B1?1766378743</t>
   </si>
 </sst>
 </file>
@@ -922,28 +979,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="10" width="60.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" customWidth="1"/>
     <col min="14" max="14" width="54.7109375" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,37 +1047,40 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
         <v>1280</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>720</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1028,39 +1089,42 @@
         <v>45981.23287239583</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="O2" s="3">
         <v>45985.24167697917</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
         <v>1280</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>720</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1069,42 +1133,45 @@
         <v>45981.23287303241</v>
       </c>
       <c r="N3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O3" s="3">
         <v>45981.45297028935</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
         <v>1280</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>720</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1113,42 +1180,45 @@
         <v>45981.23287306713</v>
       </c>
       <c r="N4" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O4" s="3">
         <v>45985.24167704861</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
         <v>1280</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>720</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1157,42 +1227,45 @@
         <v>45981.2328730787</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O5" s="3">
         <v>45987.43331303241</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>1180</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>134</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1201,42 +1274,42 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O6" s="3">
-        <v>46010.3115596875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>46013.25388103009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>380</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>134</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1245,42 +1318,42 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O7" s="3">
-        <v>46010.31155969908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>46013.25388106482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>780</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>125</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1289,42 +1362,42 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N8" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O8" s="3">
-        <v>46010.31155971065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>46013.25388107639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>380</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>264</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1333,42 +1406,42 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O9" s="3">
-        <v>46010.31155971065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>46013.25388109954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>380</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>499</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1377,42 +1450,42 @@
         <v>45981.232873125</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O10" s="3">
-        <v>46010.31155972222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>46013.25388111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>970</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>142</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1421,42 +1494,42 @@
         <v>45981.232873125</v>
       </c>
       <c r="N11" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O11" s="3">
-        <v>46010.31155966435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>46013.25388091435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>299</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>243</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1465,42 +1538,45 @@
         <v>45981.232873125</v>
       </c>
       <c r="N12" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O12" s="3">
         <v>45987.43331315972</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
         <v>299</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>244</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1509,42 +1585,45 @@
         <v>45981.232873125</v>
       </c>
       <c r="N13" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O13" s="3">
         <v>45987.4333131713</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
         <v>299</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>244</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1553,42 +1632,45 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N14" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O14" s="3">
         <v>45987.43331319444</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
         <v>970</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1597,42 +1679,45 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O15" s="3">
         <v>45987.43331320602</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
         <v>1600</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>579</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1641,42 +1726,42 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O16" s="3">
-        <v>46010.31155975694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>46013.25388119213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
         <v>1600</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>579</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1685,42 +1770,45 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O17" s="3">
         <v>45985.24167728009</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
         <v>1600</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>579</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1729,42 +1817,45 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O18" s="3">
         <v>45987.43331333333</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
         <v>1100</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>483</v>
       </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1773,42 +1864,45 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O19" s="3">
         <v>45987.43331335648</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
         <v>263</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>270</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
       <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1817,42 +1911,42 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O20" s="3">
-        <v>46010.31155967592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>46013.25388097222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
         <v>690</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>245</v>
       </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
       <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1861,42 +1955,42 @@
         <v>45981.23287315972</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="O21" s="3">
-        <v>46010.3115596875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>46013.25388098379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
         <v>1600</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>579</v>
       </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
       <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1905,42 +1999,45 @@
         <v>45981.24228215278</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O22" s="3">
         <v>45985.14627189815</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
         <v>1600</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>579</v>
       </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
       <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1949,42 +2046,45 @@
         <v>45981.24228216435</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O23" s="3">
         <v>45987.43331334491</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
         <v>1600</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>579</v>
       </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
       <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1993,42 +2093,45 @@
         <v>45981.24228217592</v>
       </c>
       <c r="N24" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O24" s="3">
         <v>45987.43331333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
         <v>1280</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>720</v>
       </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
       <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2037,42 +2140,45 @@
         <v>45981.27268214121</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O25" s="3">
         <v>45987.43331310185</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
         <v>1280</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>720</v>
       </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
       <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2081,42 +2187,45 @@
         <v>45985.14627177083</v>
       </c>
       <c r="N26" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O26" s="3">
         <v>45985.24167706018</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
         <v>1280</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>720</v>
       </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
       <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2125,230 +2234,245 @@
         <v>45987.43331267361</v>
       </c>
       <c r="N27" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="O27" s="3">
         <v>45987.43331267361</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
         <v>1680</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>265</v>
       </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
       <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K28" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M28" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N28" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O28" s="3">
         <v>45987.43331329861</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
         <v>422</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>520</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M29" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N29" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O29" s="3">
         <v>45987.43331329861</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>422</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>520</v>
       </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
       <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K30" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M30" s="3">
         <v>45987.43331331018</v>
       </c>
       <c r="N30" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O30" s="3">
         <v>45987.43331331018</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
         <v>422</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>300</v>
       </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
       <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L31" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M31" s="3">
         <v>45987.43331332176</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O31" s="3">
         <v>45987.43331332176</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
         <v>1280</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>720</v>
       </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
       <c r="E32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2357,42 +2481,42 @@
         <v>46006.40792114583</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O32" s="3">
-        <v>46010.31155960648</v>
+        <v>46013.2538807176</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
         <v>1280</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>720</v>
       </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
       <c r="E33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2401,7 +2525,7 @@
         <v>46006.4079212037</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O33" s="3">
         <v>46010.31155962963</v>
@@ -2409,34 +2533,34 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
         <v>1280</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>720</v>
       </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
       <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2445,7 +2569,7 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N34" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O34" s="3">
         <v>46006.40792121528</v>
@@ -2453,34 +2577,34 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
         <v>970</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>141</v>
       </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
       <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2489,42 +2613,42 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N35" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O35" s="3">
-        <v>46010.3115596412</v>
+        <v>46013.25388081018</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
         <v>299</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>244</v>
       </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
       <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2533,42 +2657,42 @@
         <v>46006.40792122686</v>
       </c>
       <c r="N36" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O36" s="3">
-        <v>46010.3115596412</v>
+        <v>46013.25388084491</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>299</v>
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
       </c>
       <c r="C37">
         <v>299</v>
       </c>
-      <c r="D37" t="s">
-        <v>24</v>
+      <c r="D37">
+        <v>299</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2577,42 +2701,42 @@
         <v>46006.40792125</v>
       </c>
       <c r="N37" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O37" s="3">
-        <v>46010.3115596412</v>
+        <v>46013.25388089121</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
         <v>1170</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>444</v>
       </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
       <c r="E38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2621,42 +2745,42 @@
         <v>46006.40792126158</v>
       </c>
       <c r="N38" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O38" s="3">
-        <v>46010.31155966435</v>
+        <v>46013.25388090278</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
         <v>299</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>249</v>
       </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
       <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2665,42 +2789,42 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N39" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O39" s="3">
-        <v>46010.31155967592</v>
+        <v>46013.2538809375</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
         <v>1100</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>483</v>
       </c>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
       <c r="E40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2709,7 +2833,7 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N40" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O40" s="3">
         <v>46006.40792127314</v>
@@ -2717,128 +2841,128 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
         <v>1680</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>265</v>
       </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
       <c r="E41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J41" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M41" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N41" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O41" s="3">
-        <v>46010.3115597338</v>
+        <v>46013.25388112268</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
         <v>422</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>520</v>
       </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
       <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L42" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M42" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N42" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O42" s="3">
-        <v>46010.29087409722</v>
+        <v>46013.17186355324</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
         <v>1600</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>579</v>
       </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
       <c r="E43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2847,42 +2971,42 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N43" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O43" s="3">
-        <v>46010.31155974537</v>
+        <v>46013.25388122685</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
         <v>1600</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>579</v>
       </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
       <c r="E44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J44" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2891,42 +3015,42 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N44" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O44" s="3">
-        <v>46010.31155974537</v>
+        <v>46013.25388118056</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
         <v>1600</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>579</v>
       </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
       <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2935,42 +3059,42 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N45" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O45" s="3">
-        <v>46010.3115597338</v>
+        <v>46013.25388121528</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
         <v>1280</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>720</v>
       </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
       <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2979,42 +3103,42 @@
         <v>46010.29087371528</v>
       </c>
       <c r="N46" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O46" s="3">
-        <v>46010.31155961806</v>
+        <v>46013.25388074074</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
         <v>1280</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>720</v>
       </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
       <c r="E47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3023,42 +3147,42 @@
         <v>46010.29087402778</v>
       </c>
       <c r="N47" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O47" s="3">
-        <v>46010.3115596412</v>
+        <v>46013.20368797454</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48">
         <v>1280</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>720</v>
       </c>
-      <c r="D48" t="s">
-        <v>25</v>
-      </c>
       <c r="E48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J48" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3067,42 +3191,42 @@
         <v>46010.29087403935</v>
       </c>
       <c r="N48" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O48" s="3">
-        <v>46010.29087403935</v>
+        <v>46013.25388077546</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
         <v>1100</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>483</v>
       </c>
-      <c r="D49" t="s">
-        <v>25</v>
-      </c>
       <c r="E49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3111,89 +3235,89 @@
         <v>46010.2908740625</v>
       </c>
       <c r="N49" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O49" s="3">
-        <v>46010.31155967592</v>
+        <v>46013.25388094907</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50">
         <v>422</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>520</v>
       </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
       <c r="E50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L50" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M50" s="3">
         <v>46010.29087409722</v>
       </c>
       <c r="N50" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O50" s="3">
-        <v>46010.3115597338</v>
+        <v>46013.25388113426</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
         <v>1600</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>579</v>
       </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
       <c r="E51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3202,10 +3326,98 @@
         <v>46010.2908741088</v>
       </c>
       <c r="N51" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O51" s="3">
-        <v>46010.31155974537</v>
+        <v>46013.2538811574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>1280</v>
+      </c>
+      <c r="D52">
+        <v>720</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>46013.17186259259</v>
+      </c>
+      <c r="N52" t="s">
+        <v>193</v>
+      </c>
+      <c r="O52" s="3">
+        <v>46013.19294402777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>1280</v>
+      </c>
+      <c r="D53">
+        <v>720</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" t="s">
+        <v>174</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>46013.20368798611</v>
+      </c>
+      <c r="N53" t="s">
+        <v>194</v>
+      </c>
+      <c r="O53" s="3">
+        <v>46013.25388076389</v>
       </c>
     </row>
   </sheetData>
@@ -3308,6 +3520,10 @@
     <hyperlink ref="I50" r:id="rId96"/>
     <hyperlink ref="H51" r:id="rId97"/>
     <hyperlink ref="I51" r:id="rId98"/>
+    <hyperlink ref="H52" r:id="rId99"/>
+    <hyperlink ref="I52" r:id="rId100"/>
+    <hyperlink ref="H53" r:id="rId101"/>
+    <hyperlink ref="I53" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="196">
   <si>
     <t>site</t>
   </si>
@@ -238,6 +238,9 @@
     <t>https://banner.bolor.net/pub/jump?t=379749266bd372848d7ab4bc882c9c77</t>
   </si>
   <si>
+    <t>https://applepay.m-bank.mn/</t>
+  </si>
+  <si>
     <t>https://www.khanbank.com/personal/news/intelligence/7854/</t>
   </si>
   <si>
@@ -397,22 +400,22 @@
     <t>C:\Scraper\banner_screenshots\ikon_1764152521_1_26cd4c0c.png</t>
   </si>
   <si>
-    <t>banner_screenshots/lemonpress_1766383421_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766383422_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766383422_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766383422_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766383422_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766383190_6_167ecfe9.png</t>
+    <t>banner_screenshots/lemonpress_1766396894_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766396894_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766396894_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766396895_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/lemonpress_1766396895_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766396657_6_167ecfe9.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\news_1764152503_20_767f822f.png</t>
@@ -427,7 +430,7 @@
     <t>C:\Scraper\banner_screenshots\news_1764152525_7_5d66d2ef.png</t>
   </si>
   <si>
-    <t>banner_screenshots/bolortoli_1766383463_0_988754e7.png</t>
+    <t>banner_screenshots/bolortoli_1766396948_0_988754e7.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
@@ -439,10 +442,10 @@
     <t>C:\Scraper\banner_screenshots\gogo_1764152501_26_ef6fd160.png</t>
   </si>
   <si>
-    <t>banner_screenshots/gogo_1766383098_35_020787f6.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1766383102_141_e2d53d38.png</t>
+    <t>banner_screenshots/gogo_1766396582_36_020787f6.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1766396587_142_e2d53d38.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
@@ -484,43 +487,43 @@
     <t>banner_screenshots/ikon_1765791769_2_2b66b92a.png</t>
   </si>
   <si>
-    <t>banner_screenshots/news_1766383176_5_1c5efbf5.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766383179_22_b35122f0.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766383180_64_63744233.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766383181_69_ccf95ae7.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766383192_23_5099a424.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1765791721_26_e5a1225e.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766383422_0_e8a3ee95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766376360_1_1dc68725.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766383497_0_bd18a737.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766383455_0_5a32e6f1.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766383472_0_e48d3301.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766383126_2_07def81d.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766378932_1_b76fdb5d.png</t>
+    <t>banner_screenshots/news_1766396645_5_1c5efbf5.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766396647_22_b35122f0.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766396648_64_63744233.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766396648_69_ccf95ae7.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/news_1766396659_23_5099a424.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_1766396580_26_e5a1225e.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1766396878_0_e8a3ee95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/caak_1766396881_1_1dc68725.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766396923_0_bd18a737.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766396940_0_5a32e6f1.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/bolortoli_1766396973_0_e48d3301.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766396598_1_07def81d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/ikon_1766396619_1_b76fdb5d.png</t>
   </si>
   <si>
     <t>banner_screenshots/ikon_1766383148_2_f6fa2762.png</t>
@@ -532,13 +535,13 @@
     <t>banner_screenshots/caak_1766383425_1_56acdb22.png</t>
   </si>
   <si>
-    <t>banner_screenshots/bolortoli_1766383446_0_f334782e.png</t>
+    <t>banner_screenshots/bolortoli_1766396932_0_f334782e.png</t>
   </si>
   <si>
     <t>banner_screenshots/ikon_1766377899_2_1225693d.png</t>
   </si>
   <si>
-    <t>banner_screenshots/ikon_1766383137_1_7f1ee0a6.png</t>
+    <t>banner_screenshots/ikon_1766396630_2_7f1ee0a6.png</t>
   </si>
   <si>
     <t>3</t>
@@ -1077,10 +1080,10 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1089,7 +1092,7 @@
         <v>45981.23287239583</v>
       </c>
       <c r="N2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O2" s="3">
         <v>45985.24167697917</v>
@@ -1121,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1133,7 +1136,7 @@
         <v>45981.23287303241</v>
       </c>
       <c r="N3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O3" s="3">
         <v>45981.45297028935</v>
@@ -1168,10 +1171,10 @@
         <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1180,7 +1183,7 @@
         <v>45981.23287306713</v>
       </c>
       <c r="N4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O4" s="3">
         <v>45985.24167704861</v>
@@ -1215,10 +1218,10 @@
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1227,7 +1230,7 @@
         <v>45981.2328730787</v>
       </c>
       <c r="N5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O5" s="3">
         <v>45987.43331303241</v>
@@ -1265,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1274,10 +1277,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O6" s="3">
-        <v>46013.25388103009</v>
+        <v>46013.40986271991</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1309,7 +1312,7 @@
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1318,10 +1321,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O7" s="3">
-        <v>46013.25388106482</v>
+        <v>46013.40986274306</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1353,7 +1356,7 @@
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1362,10 +1365,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O8" s="3">
-        <v>46013.25388107639</v>
+        <v>46013.40986277778</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1397,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1406,10 +1409,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O9" s="3">
-        <v>46013.25388109954</v>
+        <v>46013.4098628125</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1441,7 +1444,7 @@
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1450,10 +1453,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O10" s="3">
-        <v>46013.25388111111</v>
+        <v>46013.40986282408</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1482,10 +1485,10 @@
         <v>47</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1494,10 +1497,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O11" s="3">
-        <v>46013.25388091435</v>
+        <v>46013.40986262731</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1526,10 +1529,10 @@
         <v>48</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1538,7 +1541,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O12" s="3">
         <v>45987.43331315972</v>
@@ -1573,10 +1576,10 @@
         <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1585,7 +1588,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O13" s="3">
         <v>45987.4333131713</v>
@@ -1620,10 +1623,10 @@
         <v>47</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1632,7 +1635,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O14" s="3">
         <v>45987.43331319444</v>
@@ -1667,10 +1670,10 @@
         <v>50</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1679,7 +1682,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O15" s="3">
         <v>45987.43331320602</v>
@@ -1714,10 +1717,10 @@
         <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1726,10 +1729,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O16" s="3">
-        <v>46013.25388119213</v>
+        <v>46013.40986292824</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1758,10 +1761,10 @@
         <v>52</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1770,7 +1773,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" s="3">
         <v>45985.24167728009</v>
@@ -1805,10 +1808,10 @@
         <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1817,7 +1820,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O18" s="3">
         <v>45987.43331333333</v>
@@ -1852,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1864,7 +1867,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O19" s="3">
         <v>45987.43331335648</v>
@@ -1899,10 +1902,10 @@
         <v>54</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1911,10 +1914,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O20" s="3">
-        <v>46013.25388097222</v>
+        <v>46013.40986268518</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1943,10 +1946,10 @@
         <v>54</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1955,10 +1958,10 @@
         <v>45981.23287315972</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O21" s="3">
-        <v>46013.25388098379</v>
+        <v>46013.40986270834</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1987,10 +1990,10 @@
         <v>55</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1999,7 +2002,7 @@
         <v>45981.24228215278</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O22" s="3">
         <v>45985.14627189815</v>
@@ -2034,10 +2037,10 @@
         <v>56</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2046,7 +2049,7 @@
         <v>45981.24228216435</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O23" s="3">
         <v>45987.43331334491</v>
@@ -2081,10 +2084,10 @@
         <v>57</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2093,7 +2096,7 @@
         <v>45981.24228217592</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O24" s="3">
         <v>45987.43331333333</v>
@@ -2128,10 +2131,10 @@
         <v>41</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2140,7 +2143,7 @@
         <v>45981.27268214121</v>
       </c>
       <c r="N25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O25" s="3">
         <v>45987.43331310185</v>
@@ -2175,10 +2178,10 @@
         <v>58</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2187,7 +2190,7 @@
         <v>45985.14627177083</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O26" s="3">
         <v>45985.24167706018</v>
@@ -2222,10 +2225,10 @@
         <v>59</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2234,7 +2237,7 @@
         <v>45987.43331267361</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O27" s="3">
         <v>45987.43331267361</v>
@@ -2269,22 +2272,22 @@
         <v>60</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M28" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O28" s="3">
         <v>45987.43331329861</v>
@@ -2319,22 +2322,22 @@
         <v>61</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O29" s="3">
         <v>45987.43331329861</v>
@@ -2369,22 +2372,22 @@
         <v>62</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M30" s="3">
         <v>45987.43331331018</v>
       </c>
       <c r="N30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O30" s="3">
         <v>45987.43331331018</v>
@@ -2419,22 +2422,22 @@
         <v>63</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M31" s="3">
         <v>45987.43331332176</v>
       </c>
       <c r="N31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O31" s="3">
         <v>45987.43331332176</v>
@@ -2469,10 +2472,10 @@
         <v>64</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2481,7 +2484,7 @@
         <v>46006.40792114583</v>
       </c>
       <c r="N32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O32" s="3">
         <v>46013.2538807176</v>
@@ -2513,10 +2516,10 @@
         <v>65</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2525,7 +2528,7 @@
         <v>46006.4079212037</v>
       </c>
       <c r="N33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O33" s="3">
         <v>46010.31155962963</v>
@@ -2557,10 +2560,10 @@
         <v>66</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2569,7 +2572,7 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O34" s="3">
         <v>46006.40792121528</v>
@@ -2601,10 +2604,10 @@
         <v>50</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2613,10 +2616,10 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O35" s="3">
-        <v>46013.25388081018</v>
+        <v>46013.40986256945</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2645,10 +2648,10 @@
         <v>67</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2657,10 +2660,10 @@
         <v>46006.40792122686</v>
       </c>
       <c r="N36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O36" s="3">
-        <v>46013.25388084491</v>
+        <v>46013.40986258102</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2689,10 +2692,10 @@
         <v>68</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2701,10 +2704,10 @@
         <v>46006.40792125</v>
       </c>
       <c r="N37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O37" s="3">
-        <v>46013.25388089121</v>
+        <v>46013.40986259259</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2733,10 +2736,10 @@
         <v>69</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2745,10 +2748,10 @@
         <v>46006.40792126158</v>
       </c>
       <c r="N38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O38" s="3">
-        <v>46013.25388090278</v>
+        <v>46013.40986261574</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2777,10 +2780,10 @@
         <v>65</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2789,10 +2792,10 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O39" s="3">
-        <v>46013.2538809375</v>
+        <v>46013.40986265046</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2812,19 +2815,19 @@
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2833,10 +2836,10 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O40" s="3">
-        <v>46006.40792127314</v>
+        <v>46013.40986266204</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2865,25 +2868,25 @@
         <v>70</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M41" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O41" s="3">
-        <v>46013.25388112268</v>
+        <v>46013.40986283565</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2912,25 +2915,25 @@
         <v>65</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M42" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O42" s="3">
-        <v>46013.17186355324</v>
+        <v>46013.4098628588</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2959,10 +2962,10 @@
         <v>71</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2971,10 +2974,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O43" s="3">
-        <v>46013.25388122685</v>
+        <v>46013.40986287037</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3003,10 +3006,10 @@
         <v>72</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3015,10 +3018,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O44" s="3">
-        <v>46013.25388118056</v>
+        <v>46013.40986290509</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3047,10 +3050,10 @@
         <v>73</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3059,10 +3062,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O45" s="3">
-        <v>46013.25388121528</v>
+        <v>46013.40986296297</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3070,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>1280</v>
@@ -3088,13 +3091,13 @@
         <v>2</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3103,10 +3106,10 @@
         <v>46010.29087371528</v>
       </c>
       <c r="N46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O46" s="3">
-        <v>46013.25388074074</v>
+        <v>46013.40986239583</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3135,10 +3138,10 @@
         <v>66</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3147,10 +3150,10 @@
         <v>46010.29087402778</v>
       </c>
       <c r="N47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O47" s="3">
-        <v>46013.20368797454</v>
+        <v>46013.4098625</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3179,10 +3182,10 @@
         <v>66</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3191,7 +3194,7 @@
         <v>46010.29087403935</v>
       </c>
       <c r="N48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O48" s="3">
         <v>46013.25388077546</v>
@@ -3223,10 +3226,10 @@
         <v>54</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3235,7 +3238,7 @@
         <v>46010.2908740625</v>
       </c>
       <c r="N49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O49" s="3">
         <v>46013.25388094907</v>
@@ -3264,25 +3267,25 @@
         <v>2</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M50" s="3">
         <v>46010.29087409722</v>
       </c>
       <c r="N50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O50" s="3">
         <v>46013.25388113426</v>
@@ -3311,13 +3314,13 @@
         <v>2</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3326,10 +3329,10 @@
         <v>46010.2908741088</v>
       </c>
       <c r="N51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O51" s="3">
-        <v>46013.2538811574</v>
+        <v>46013.40986288194</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3358,10 +3361,10 @@
         <v>66</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3370,7 +3373,7 @@
         <v>46013.17186259259</v>
       </c>
       <c r="N52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O52" s="3">
         <v>46013.19294402777</v>
@@ -3402,10 +3405,10 @@
         <v>66</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3414,10 +3417,10 @@
         <v>46013.20368798611</v>
       </c>
       <c r="N53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O53" s="3">
-        <v>46013.25388076389</v>
+        <v>46013.40986253473</v>
       </c>
     </row>
   </sheetData>

--- a/_export/summary.xlsx
+++ b/_export/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="198">
   <si>
     <t>site</t>
   </si>
@@ -133,6 +133,12 @@
     <t>2025-12-22</t>
   </si>
   <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/reel/4123467941205726</t>
   </si>
   <si>
@@ -400,22 +406,22 @@
     <t>C:\Scraper\banner_screenshots\ikon_1764152521_1_26cd4c0c.png</t>
   </si>
   <si>
-    <t>banner_screenshots/lemonpress_1766396894_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766396894_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766396894_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766396895_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/lemonpress_1766396895_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766396657_6_167ecfe9.png</t>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\lemonpress_f3725195.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\lemonpress_11f86d75.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\lemonpress_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\lemonpress_f6335426.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\lemonpress_50b5be95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\news_167ecfe9.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\news_1764152503_20_767f822f.png</t>
@@ -430,7 +436,7 @@
     <t>C:\Scraper\banner_screenshots\news_1764152525_7_5d66d2ef.png</t>
   </si>
   <si>
-    <t>banner_screenshots/bolortoli_1766396948_0_988754e7.png</t>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\bolortoli_988754e7.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763962964_0_dc08ebf8.png</t>
@@ -442,10 +448,10 @@
     <t>C:\Scraper\banner_screenshots\gogo_1764152501_26_ef6fd160.png</t>
   </si>
   <si>
-    <t>banner_screenshots/gogo_1766396582_36_020787f6.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1766396587_142_e2d53d38.png</t>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\gogo_020787f6.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\gogo_e2d53d38.png</t>
   </si>
   <si>
     <t>C:\Scraper\banner_screenshots\bolortoli_1763954739_0_fa84a932.png</t>
@@ -487,58 +493,58 @@
     <t>banner_screenshots/ikon_1765791769_2_2b66b92a.png</t>
   </si>
   <si>
-    <t>banner_screenshots/news_1766396645_5_1c5efbf5.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766396647_22_b35122f0.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766396648_64_63744233.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766396648_69_ccf95ae7.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/news_1766396659_23_5099a424.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1766396580_26_e5a1225e.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766396878_0_e8a3ee95.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766396881_1_1dc68725.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766396923_0_bd18a737.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766396940_0_5a32e6f1.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766396973_0_e48d3301.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766396598_1_07def81d.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766396619_1_b76fdb5d.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766383148_2_f6fa2762.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/gogo_1766383097_26_2a184300.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/caak_1766383425_1_56acdb22.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/bolortoli_1766396932_0_f334782e.png</t>
-  </si>
-  <si>
-    <t>banner_screenshots/ikon_1766377899_2_1225693d.png</t>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\news_1c5efbf5.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\news_b35122f0.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\news_63744233.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\news_ccf95ae7.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\news_5099a424.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\gogo_e5a1225e.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\caak_e8a3ee95.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\caak_1dc68725.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\bolortoli_bd18a737.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\bolortoli_5a32e6f1.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\bolortoli_e48d3301.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\ikon_07def81d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\ikon_b76fdb5d.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\ikon_f6fa2762.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/gogo_2a184300.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\caak_56acdb22.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\bolortoli_f334782e.png</t>
+  </si>
+  <si>
+    <t>banner_screenshots/./banner_screenshots/2025-12-25\ikon_1225693d.png</t>
   </si>
   <si>
     <t>banner_screenshots/ikon_1766396630_2_7f1ee0a6.png</t>
@@ -1077,13 +1083,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1092,7 +1098,7 @@
         <v>45981.23287239583</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O2" s="3">
         <v>45985.24167697917</v>
@@ -1124,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1136,7 +1142,7 @@
         <v>45981.23287303241</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O3" s="3">
         <v>45981.45297028935</v>
@@ -1168,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1183,7 +1189,7 @@
         <v>45981.23287306713</v>
       </c>
       <c r="N4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O4" s="3">
         <v>45985.24167704861</v>
@@ -1215,13 +1221,13 @@
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1230,7 +1236,7 @@
         <v>45981.2328730787</v>
       </c>
       <c r="N5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O5" s="3">
         <v>45987.43331303241</v>
@@ -1256,19 +1262,19 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1277,10 +1283,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O6" s="3">
-        <v>46013.40986271991</v>
+        <v>46016.32693181713</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1300,19 +1306,19 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1321,10 +1327,10 @@
         <v>45981.23287309028</v>
       </c>
       <c r="N7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O7" s="3">
-        <v>46013.40986274306</v>
+        <v>46016.32693181713</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1344,19 +1350,19 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1365,10 +1371,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O8" s="3">
-        <v>46013.40986277778</v>
+        <v>46016.32693182871</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1388,19 +1394,19 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1409,10 +1415,10 @@
         <v>45981.23287310185</v>
       </c>
       <c r="N9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O9" s="3">
-        <v>46013.4098628125</v>
+        <v>46016.32693182871</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1432,19 +1438,19 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1453,10 +1459,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O10" s="3">
-        <v>46013.40986282408</v>
+        <v>46016.32693185185</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1476,19 +1482,19 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1497,10 +1503,10 @@
         <v>45981.232873125</v>
       </c>
       <c r="N11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O11" s="3">
-        <v>46013.40986262731</v>
+        <v>46016.32693179398</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1526,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1541,7 +1547,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O12" s="3">
         <v>45987.43331315972</v>
@@ -1573,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1588,7 +1594,7 @@
         <v>45981.232873125</v>
       </c>
       <c r="N13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O13" s="3">
         <v>45987.4333131713</v>
@@ -1620,13 +1626,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1635,7 +1641,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O14" s="3">
         <v>45987.43331319444</v>
@@ -1667,13 +1673,13 @@
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1682,7 +1688,7 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O15" s="3">
         <v>45987.43331320602</v>
@@ -1708,19 +1714,19 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1729,10 +1735,10 @@
         <v>45981.23287313657</v>
       </c>
       <c r="N16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O16" s="3">
-        <v>46013.40986292824</v>
+        <v>46016.32693189815</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1758,13 +1764,13 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1773,7 +1779,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O17" s="3">
         <v>45985.24167728009</v>
@@ -1805,13 +1811,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1820,7 +1826,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O18" s="3">
         <v>45987.43331333333</v>
@@ -1852,13 +1858,13 @@
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1867,7 +1873,7 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O19" s="3">
         <v>45987.43331335648</v>
@@ -1893,19 +1899,19 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1914,10 +1920,10 @@
         <v>45981.23287314815</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O20" s="3">
-        <v>46013.40986268518</v>
+        <v>46016.32693180555</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1937,19 +1943,19 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1958,10 +1964,10 @@
         <v>45981.23287315972</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O21" s="3">
-        <v>46013.40986270834</v>
+        <v>46016.32693181713</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1987,13 +1993,13 @@
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2002,7 +2008,7 @@
         <v>45981.24228215278</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O22" s="3">
         <v>45985.14627189815</v>
@@ -2034,13 +2040,13 @@
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2049,7 +2055,7 @@
         <v>45981.24228216435</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O23" s="3">
         <v>45987.43331334491</v>
@@ -2081,13 +2087,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2096,7 +2102,7 @@
         <v>45981.24228217592</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O24" s="3">
         <v>45987.43331333333</v>
@@ -2128,13 +2134,13 @@
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2143,7 +2149,7 @@
         <v>45981.27268214121</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O25" s="3">
         <v>45987.43331310185</v>
@@ -2175,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2190,7 +2196,7 @@
         <v>45985.14627177083</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O26" s="3">
         <v>45985.24167706018</v>
@@ -2222,13 +2228,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2237,7 +2243,7 @@
         <v>45987.43331267361</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O27" s="3">
         <v>45987.43331267361</v>
@@ -2269,25 +2275,25 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M28" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O28" s="3">
         <v>45987.43331329861</v>
@@ -2319,25 +2325,25 @@
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M29" s="3">
         <v>45987.43331329861</v>
       </c>
       <c r="N29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O29" s="3">
         <v>45987.43331329861</v>
@@ -2369,25 +2375,25 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M30" s="3">
         <v>45987.43331331018</v>
       </c>
       <c r="N30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O30" s="3">
         <v>45987.43331331018</v>
@@ -2419,25 +2425,25 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M31" s="3">
         <v>45987.43331332176</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O31" s="3">
         <v>45987.43331332176</v>
@@ -2469,13 +2475,13 @@
         <v>6</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2484,7 +2490,7 @@
         <v>46006.40792114583</v>
       </c>
       <c r="N32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O32" s="3">
         <v>46013.2538807176</v>
@@ -2513,13 +2519,13 @@
         <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2528,7 +2534,7 @@
         <v>46006.4079212037</v>
       </c>
       <c r="N33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O33" s="3">
         <v>46010.31155962963</v>
@@ -2557,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2572,7 +2578,7 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O34" s="3">
         <v>46006.40792121528</v>
@@ -2595,19 +2601,19 @@
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2616,10 +2622,10 @@
         <v>46006.40792121528</v>
       </c>
       <c r="N35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O35" s="3">
-        <v>46013.40986256945</v>
+        <v>46016.32693175926</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2639,19 +2645,19 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2660,10 +2666,10 @@
         <v>46006.40792122686</v>
       </c>
       <c r="N36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O36" s="3">
-        <v>46013.40986258102</v>
+        <v>46016.32693177083</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2683,19 +2689,19 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2704,10 +2710,10 @@
         <v>46006.40792125</v>
       </c>
       <c r="N37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O37" s="3">
-        <v>46013.40986259259</v>
+        <v>46016.32693178241</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2727,19 +2733,19 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2748,10 +2754,10 @@
         <v>46006.40792126158</v>
       </c>
       <c r="N38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O38" s="3">
-        <v>46013.40986261574</v>
+        <v>46016.32693178241</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2771,19 +2777,19 @@
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2792,10 +2798,10 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O39" s="3">
-        <v>46013.40986265046</v>
+        <v>46016.32693179398</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2815,19 +2821,19 @@
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2836,10 +2842,10 @@
         <v>46006.40792127314</v>
       </c>
       <c r="N40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O40" s="3">
-        <v>46013.40986266204</v>
+        <v>46016.32693180555</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2859,34 +2865,34 @@
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M41" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O41" s="3">
-        <v>46013.40986283565</v>
+        <v>46016.32693185185</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2906,34 +2912,34 @@
         <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M42" s="3">
         <v>46006.40792130787</v>
       </c>
       <c r="N42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O42" s="3">
-        <v>46013.4098628588</v>
+        <v>46016.11240943287</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2953,19 +2959,19 @@
         <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2974,10 +2980,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O43" s="3">
-        <v>46013.40986287037</v>
+        <v>46016.32693188657</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2997,19 +3003,19 @@
         <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3018,10 +3024,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O44" s="3">
-        <v>46013.40986290509</v>
+        <v>46016.32693189815</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3041,19 +3047,19 @@
         <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3062,10 +3068,10 @@
         <v>46006.40792131944</v>
       </c>
       <c r="N45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O45" s="3">
-        <v>46013.40986296297</v>
+        <v>46016.326931875</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3085,19 +3091,19 @@
         <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3106,10 +3112,10 @@
         <v>46010.29087371528</v>
       </c>
       <c r="N46" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O46" s="3">
-        <v>46013.40986239583</v>
+        <v>46016.32693172454</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3117,7 +3123,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>1280</v>
@@ -3129,19 +3135,19 @@
         <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3150,10 +3156,10 @@
         <v>46010.29087402778</v>
       </c>
       <c r="N47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O47" s="3">
-        <v>46013.4098625</v>
+        <v>46016.11240929398</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3161,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <v>1280</v>
@@ -3173,19 +3179,19 @@
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3194,10 +3200,10 @@
         <v>46010.29087403935</v>
       </c>
       <c r="N48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O48" s="3">
-        <v>46013.25388077546</v>
+        <v>46016.32693174769</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3217,19 +3223,19 @@
         <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3238,10 +3244,10 @@
         <v>46010.2908740625</v>
       </c>
       <c r="N49" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O49" s="3">
-        <v>46013.25388094907</v>
+        <v>46015.18260353009</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3261,34 +3267,34 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M50" s="3">
         <v>46010.29087409722</v>
       </c>
       <c r="N50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O50" s="3">
-        <v>46013.25388113426</v>
+        <v>46016.32200714121</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3308,19 +3314,19 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3329,10 +3335,10 @@
         <v>46010.2908741088</v>
       </c>
       <c r="N51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O51" s="3">
-        <v>46013.40986288194</v>
+        <v>46016.32693188657</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3340,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>1280</v>
@@ -3352,19 +3358,19 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3373,10 +3379,10 @@
         <v>46013.17186259259</v>
       </c>
       <c r="N52" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O52" s="3">
-        <v>46013.19294402777</v>
+        <v>46016.32693175926</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3402,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J53" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3417,7 +3423,7 @@
         <v>46013.20368798611</v>
       </c>
       <c r="N53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O53" s="3">
         <v>46013.40986253473</v>
